--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_16ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>159.9902235941752</v>
+        <v>211.7051790210549</v>
       </c>
       <c r="AB2" t="n">
-        <v>218.9056821919691</v>
+        <v>289.6643657098035</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.013631119685</v>
+        <v>262.0192051930358</v>
       </c>
       <c r="AD2" t="n">
-        <v>159990.2235941752</v>
+        <v>211705.1790210549</v>
       </c>
       <c r="AE2" t="n">
-        <v>218905.6821919691</v>
+        <v>289664.3657098035</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.51509421320979e-06</v>
+        <v>3.62592182559196e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>198013.631119685</v>
+        <v>262019.2051930357</v>
       </c>
     </row>
     <row r="3">
@@ -4468,28 +4468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.5100731012562</v>
+        <v>187.6770015872241</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.7250573515275</v>
+        <v>256.7879532964788</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.8544553868146</v>
+        <v>232.2804714380937</v>
       </c>
       <c r="AD3" t="n">
-        <v>144510.0731012562</v>
+        <v>187677.0015872241</v>
       </c>
       <c r="AE3" t="n">
-        <v>197725.0573515274</v>
+        <v>256787.9532964788</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.725844692561182e-06</v>
+        <v>3.929753291952397e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.14583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>178854.4553868146</v>
+        <v>232280.4714380937</v>
       </c>
     </row>
     <row r="4">
@@ -4574,28 +4574,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.90370385915</v>
+        <v>174.1558836911385</v>
       </c>
       <c r="AB4" t="n">
-        <v>179.1082226838411</v>
+        <v>238.2877632814417</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.0143852909148</v>
+        <v>215.5459135929061</v>
       </c>
       <c r="AD4" t="n">
-        <v>130903.70385915</v>
+        <v>174155.8836911385</v>
       </c>
       <c r="AE4" t="n">
-        <v>179108.2226838411</v>
+        <v>238287.7632814417</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.893273332320572e-06</v>
+        <v>4.171129203814554e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.5078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>162014.3852909148</v>
+        <v>215545.9135929061</v>
       </c>
     </row>
     <row r="5">
@@ -4680,28 +4680,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.6137503292758</v>
+        <v>170.6953379606721</v>
       </c>
       <c r="AB5" t="n">
-        <v>174.6067631217634</v>
+        <v>233.5528919445172</v>
       </c>
       <c r="AC5" t="n">
-        <v>157.9425387116022</v>
+        <v>211.2629317309425</v>
       </c>
       <c r="AD5" t="n">
-        <v>127613.7503292758</v>
+        <v>170695.3379606721</v>
       </c>
       <c r="AE5" t="n">
-        <v>174606.7631217634</v>
+        <v>233552.8919445172</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.007063185774779e-06</v>
+        <v>4.335175986238647e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>157942.5387116022</v>
+        <v>211262.9317309425</v>
       </c>
     </row>
     <row r="6">
@@ -4786,28 +4786,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.3803553269129</v>
+        <v>159.5471943043298</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.2367364971272</v>
+        <v>218.2995099725301</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.0394058560485</v>
+        <v>197.465311126101</v>
       </c>
       <c r="AD6" t="n">
-        <v>116380.3553269129</v>
+        <v>159547.1943043298</v>
       </c>
       <c r="AE6" t="n">
-        <v>159236.7364971272</v>
+        <v>218299.5099725301</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.100709317479042e-06</v>
+        <v>4.47018228184592e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.8046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>144039.4058560485</v>
+        <v>197465.311126101</v>
       </c>
     </row>
     <row r="7">
@@ -4892,28 +4892,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>116.5155219175267</v>
+        <v>159.6823608949436</v>
       </c>
       <c r="AB7" t="n">
-        <v>159.421677389534</v>
+        <v>218.4844508649369</v>
       </c>
       <c r="AC7" t="n">
-        <v>144.2066962492502</v>
+        <v>197.6326015193028</v>
       </c>
       <c r="AD7" t="n">
-        <v>116515.5219175267</v>
+        <v>159682.3608949436</v>
       </c>
       <c r="AE7" t="n">
-        <v>159421.677389534</v>
+        <v>218484.450864937</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.097744945912132e-06</v>
+        <v>4.465908652847385e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.817708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>144206.6962492502</v>
+        <v>197632.6015193028</v>
       </c>
     </row>
   </sheetData>
@@ -5189,28 +5189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.257081188632</v>
+        <v>316.8049097487414</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.2033143440297</v>
+        <v>433.466453964439</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.3074190804326</v>
+        <v>392.0970239720613</v>
       </c>
       <c r="AD2" t="n">
-        <v>244257.081188632</v>
+        <v>316804.9097487414</v>
       </c>
       <c r="AE2" t="n">
-        <v>334203.3143440297</v>
+        <v>433466.453964439</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.777034759799438e-06</v>
+        <v>2.491051255759868e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.00260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>302307.4190804326</v>
+        <v>392097.0239720613</v>
       </c>
     </row>
     <row r="3">
@@ -5295,28 +5295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.7081595073467</v>
+        <v>273.1768530791898</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.9319555088664</v>
+        <v>373.7726220951392</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.5475723867134</v>
+        <v>338.1002876355483</v>
       </c>
       <c r="AD3" t="n">
-        <v>209708.1595073467</v>
+        <v>273176.8530791898</v>
       </c>
       <c r="AE3" t="n">
-        <v>286931.9555088664</v>
+        <v>373772.6220951392</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.003392618069844e-06</v>
+        <v>2.808360202017762e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.19270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>259547.5723867134</v>
+        <v>338100.2876355483</v>
       </c>
     </row>
     <row r="4">
@@ -5401,28 +5401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.3010401862266</v>
+        <v>245.7759396243722</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.7465227889307</v>
+        <v>336.2814834631134</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.7658020175836</v>
+        <v>304.1872506555204</v>
       </c>
       <c r="AD4" t="n">
-        <v>191301.0401862266</v>
+        <v>245775.9396243722</v>
       </c>
       <c r="AE4" t="n">
-        <v>261746.5227889307</v>
+        <v>336281.4834631134</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.170895249322522e-06</v>
+        <v>3.043165760898421e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.09895833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>236765.8020175836</v>
+        <v>304187.2506555204</v>
       </c>
     </row>
     <row r="5">
@@ -5507,28 +5507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.2956187472309</v>
+        <v>230.6851773308048</v>
       </c>
       <c r="AB5" t="n">
-        <v>241.2154431836342</v>
+        <v>315.6336367356194</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.1941798342588</v>
+        <v>285.5100054402569</v>
       </c>
       <c r="AD5" t="n">
-        <v>176295.6187472309</v>
+        <v>230685.1773308048</v>
       </c>
       <c r="AE5" t="n">
-        <v>241215.4431836343</v>
+        <v>315633.6367356194</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.293366534337518e-06</v>
+        <v>3.21484627904741e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>218194.1798342589</v>
+        <v>285510.0054402568</v>
       </c>
     </row>
     <row r="6">
@@ -5613,28 +5613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.8760011599431</v>
+        <v>226.25926436866</v>
       </c>
       <c r="AB6" t="n">
-        <v>222.8541303689718</v>
+        <v>309.5779073633166</v>
       </c>
       <c r="AC6" t="n">
-        <v>201.5852449443576</v>
+        <v>280.0322263799752</v>
       </c>
       <c r="AD6" t="n">
-        <v>162876.0011599431</v>
+        <v>226259.26436866</v>
       </c>
       <c r="AE6" t="n">
-        <v>222854.1303689718</v>
+        <v>309577.9073633166</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.391094601463429e-06</v>
+        <v>3.35184169964597e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.88802083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>201585.2449443575</v>
+        <v>280032.2263799752</v>
       </c>
     </row>
     <row r="7">
@@ -5719,28 +5719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>159.5824710170765</v>
+        <v>213.8866887460787</v>
       </c>
       <c r="AB7" t="n">
-        <v>218.3477771272088</v>
+        <v>292.6492035569963</v>
       </c>
       <c r="AC7" t="n">
-        <v>197.5089717312805</v>
+        <v>264.7191743053397</v>
       </c>
       <c r="AD7" t="n">
-        <v>159582.4710170765</v>
+        <v>213886.6887460787</v>
       </c>
       <c r="AE7" t="n">
-        <v>218347.7771272088</v>
+        <v>292649.2035569963</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.472771243039051e-06</v>
+        <v>3.466336196414375e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.49739583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>197508.9717312805</v>
+        <v>264719.1743053397</v>
       </c>
     </row>
     <row r="8">
@@ -5825,28 +5825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>156.626833853632</v>
+        <v>202.0225983035117</v>
       </c>
       <c r="AB8" t="n">
-        <v>214.3037439666772</v>
+        <v>276.4162316067543</v>
       </c>
       <c r="AC8" t="n">
-        <v>193.8508954197525</v>
+        <v>250.0354544149043</v>
       </c>
       <c r="AD8" t="n">
-        <v>156626.833853632</v>
+        <v>202022.5983035117</v>
       </c>
       <c r="AE8" t="n">
-        <v>214303.7439666772</v>
+        <v>276416.2316067542</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.543572224854068e-06</v>
+        <v>3.565585169281533e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.18489583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>193850.8954197525</v>
+        <v>250035.4544149043</v>
       </c>
     </row>
     <row r="9">
@@ -5931,28 +5931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>144.5310169064148</v>
+        <v>198.9204859814376</v>
       </c>
       <c r="AB9" t="n">
-        <v>197.7537135897208</v>
+        <v>272.1717846721576</v>
       </c>
       <c r="AC9" t="n">
-        <v>178.8803767138541</v>
+        <v>246.1960915386256</v>
       </c>
       <c r="AD9" t="n">
-        <v>144531.0169064148</v>
+        <v>198920.4859814376</v>
       </c>
       <c r="AE9" t="n">
-        <v>197753.7135897208</v>
+        <v>272171.7846721576</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.616447880719803e-06</v>
+        <v>3.667742424820615e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>178880.3767138541</v>
+        <v>246196.0915386256</v>
       </c>
     </row>
     <row r="10">
@@ -6037,28 +6037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>144.3647586432301</v>
+        <v>198.7542277182528</v>
       </c>
       <c r="AB10" t="n">
-        <v>197.5262316992348</v>
+        <v>271.9443027816715</v>
       </c>
       <c r="AC10" t="n">
-        <v>178.6746053757231</v>
+        <v>245.9903202004946</v>
       </c>
       <c r="AD10" t="n">
-        <v>144364.7586432301</v>
+        <v>198754.2277182529</v>
       </c>
       <c r="AE10" t="n">
-        <v>197526.2316992347</v>
+        <v>271944.3027816715</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.620815615563419e-06</v>
+        <v>3.673865125182562e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>178674.6053757231</v>
+        <v>245990.3202004945</v>
       </c>
     </row>
     <row r="11">
@@ -6143,28 +6143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>142.0974818623792</v>
+        <v>196.486950937402</v>
       </c>
       <c r="AB11" t="n">
-        <v>194.424043582484</v>
+        <v>268.8421146649207</v>
       </c>
       <c r="AC11" t="n">
-        <v>175.8684857388857</v>
+        <v>243.1842005636572</v>
       </c>
       <c r="AD11" t="n">
-        <v>142097.4818623792</v>
+        <v>196486.950937402</v>
       </c>
       <c r="AE11" t="n">
-        <v>194424.043582484</v>
+        <v>268842.1146649207</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.674582431488333e-06</v>
+        <v>3.749235566638127e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>175868.4857388857</v>
+        <v>243184.2005636572</v>
       </c>
     </row>
     <row r="12">
@@ -6249,28 +6249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>139.8236655653295</v>
+        <v>185.1340891606376</v>
       </c>
       <c r="AB12" t="n">
-        <v>191.312907811167</v>
+        <v>253.3086283290463</v>
       </c>
       <c r="AC12" t="n">
-        <v>173.0542723990757</v>
+        <v>229.1332083622886</v>
       </c>
       <c r="AD12" t="n">
-        <v>139823.6655653295</v>
+        <v>185134.0891606376</v>
       </c>
       <c r="AE12" t="n">
-        <v>191312.907811167</v>
+        <v>253308.6283290463</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.728502118132775e-06</v>
+        <v>3.824820302606361e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>173054.2723990757</v>
+        <v>229133.2083622886</v>
       </c>
     </row>
     <row r="13">
@@ -6355,28 +6355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>139.7749533038952</v>
+        <v>185.0853768992034</v>
       </c>
       <c r="AB13" t="n">
-        <v>191.2462575460393</v>
+        <v>253.2419780639187</v>
       </c>
       <c r="AC13" t="n">
-        <v>172.9939831417076</v>
+        <v>229.0729191049205</v>
       </c>
       <c r="AD13" t="n">
-        <v>139774.9533038953</v>
+        <v>185085.3768992034</v>
       </c>
       <c r="AE13" t="n">
-        <v>191246.2575460394</v>
+        <v>253241.9780639187</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.721884999844696e-06</v>
+        <v>3.81554441155801e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>172993.9831417076</v>
+        <v>229072.9191049206</v>
       </c>
     </row>
     <row r="14">
@@ -6461,28 +6461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>139.8690018069366</v>
+        <v>185.1794254022447</v>
       </c>
       <c r="AB14" t="n">
-        <v>191.3749388570276</v>
+        <v>253.3706593749069</v>
       </c>
       <c r="AC14" t="n">
-        <v>173.1103832889805</v>
+        <v>229.1893192521934</v>
       </c>
       <c r="AD14" t="n">
-        <v>139869.0018069366</v>
+        <v>185179.4254022447</v>
       </c>
       <c r="AE14" t="n">
-        <v>191374.9388570276</v>
+        <v>253370.6593749069</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.721229839618153e-06</v>
+        <v>3.814626006503719e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.45572916666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>173110.3832889805</v>
+        <v>229189.3192521934</v>
       </c>
     </row>
   </sheetData>
@@ -6758,28 +6758,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>133.2673734403781</v>
+        <v>190.1073443478946</v>
       </c>
       <c r="AB2" t="n">
-        <v>182.3422996826181</v>
+        <v>260.1132554807818</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.9398065199852</v>
+        <v>235.2884114490189</v>
       </c>
       <c r="AD2" t="n">
-        <v>133267.3734403781</v>
+        <v>190107.3443478946</v>
       </c>
       <c r="AE2" t="n">
-        <v>182342.2996826181</v>
+        <v>260113.2554807819</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.71987746430357e-06</v>
+        <v>4.533873685300918e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.59635416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>164939.8065199851</v>
+        <v>235288.4114490189</v>
       </c>
     </row>
   </sheetData>
@@ -7055,28 +7055,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.8417414309263</v>
+        <v>151.3263055766777</v>
       </c>
       <c r="AB2" t="n">
-        <v>142.0808518000422</v>
+        <v>207.0513273353481</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.5208547160125</v>
+        <v>187.2906392528846</v>
       </c>
       <c r="AD2" t="n">
-        <v>103841.7414309263</v>
+        <v>151326.3055766777</v>
       </c>
       <c r="AE2" t="n">
-        <v>142080.8518000422</v>
+        <v>207051.3273353481</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.410717658923217e-06</v>
+        <v>5.190793789938865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>128520.8547160125</v>
+        <v>187290.6392528846</v>
       </c>
     </row>
   </sheetData>
@@ -7352,28 +7352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.7713998053918</v>
+        <v>215.7855265620803</v>
       </c>
       <c r="AB2" t="n">
-        <v>224.0792542978745</v>
+        <v>295.2472772276605</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.6934447649584</v>
+        <v>267.0692914712958</v>
       </c>
       <c r="AD2" t="n">
-        <v>163771.3998053918</v>
+        <v>215785.5265620803</v>
       </c>
       <c r="AE2" t="n">
-        <v>224079.2542978745</v>
+        <v>295247.2772276605</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.432832087054379e-06</v>
+        <v>3.495534527893919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.39583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>202693.4447649584</v>
+        <v>267069.2914712958</v>
       </c>
     </row>
     <row r="3">
@@ -7458,28 +7458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>147.1724536906276</v>
+        <v>199.1012395927444</v>
       </c>
       <c r="AB3" t="n">
-        <v>201.3678439298456</v>
+        <v>272.419099737434</v>
       </c>
       <c r="AC3" t="n">
-        <v>182.1495795267823</v>
+        <v>246.4198032011809</v>
       </c>
       <c r="AD3" t="n">
-        <v>147172.4536906276</v>
+        <v>199101.2395927444</v>
       </c>
       <c r="AE3" t="n">
-        <v>201367.8439298456</v>
+        <v>272419.099737434</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.660063190301104e-06</v>
+        <v>3.822024042495836e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.34114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>182149.5795267823</v>
+        <v>246419.8032011809</v>
       </c>
     </row>
     <row r="4">
@@ -7564,28 +7564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>133.7107442816252</v>
+        <v>185.7247815297625</v>
       </c>
       <c r="AB4" t="n">
-        <v>182.9489392277531</v>
+        <v>254.1168396879908</v>
       </c>
       <c r="AC4" t="n">
-        <v>165.4885492383565</v>
+        <v>229.8642851634674</v>
       </c>
       <c r="AD4" t="n">
-        <v>133710.7442816251</v>
+        <v>185724.7815297625</v>
       </c>
       <c r="AE4" t="n">
-        <v>182948.9392277531</v>
+        <v>254116.8396879908</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.816206397944954e-06</v>
+        <v>4.046373259410364e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH4" t="n">
-        <v>165488.5492383565</v>
+        <v>229864.2851634674</v>
       </c>
     </row>
     <row r="5">
@@ -7670,28 +7670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.3693126502834</v>
+        <v>173.700209723187</v>
       </c>
       <c r="AB5" t="n">
-        <v>178.377045056194</v>
+        <v>237.6642900555742</v>
       </c>
       <c r="AC5" t="n">
-        <v>161.3529902298358</v>
+        <v>214.9819437766649</v>
       </c>
       <c r="AD5" t="n">
-        <v>130369.3126502834</v>
+        <v>173700.209723187</v>
       </c>
       <c r="AE5" t="n">
-        <v>178377.045056194</v>
+        <v>237664.2900555742</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.928964910748731e-06</v>
+        <v>4.208386608756148e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>161352.9902298358</v>
+        <v>214981.9437766649</v>
       </c>
     </row>
     <row r="6">
@@ -7776,28 +7776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.7247187090806</v>
+        <v>170.6534151026464</v>
       </c>
       <c r="AB6" t="n">
-        <v>162.4443979026204</v>
+        <v>233.4955312406604</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.9409325589835</v>
+        <v>211.2110454521556</v>
       </c>
       <c r="AD6" t="n">
-        <v>118724.7187090806</v>
+        <v>170653.4151026464</v>
       </c>
       <c r="AE6" t="n">
-        <v>162444.3979026204</v>
+        <v>233495.5312406604</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.022938059155658e-06</v>
+        <v>4.343408826976328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>146940.9325589835</v>
+        <v>211211.0454521556</v>
       </c>
     </row>
     <row r="7">
@@ -7882,28 +7882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>118.7841095672784</v>
+        <v>170.7128059608442</v>
       </c>
       <c r="AB7" t="n">
-        <v>162.5256590949464</v>
+        <v>233.5767924329864</v>
       </c>
       <c r="AC7" t="n">
-        <v>147.0144382971647</v>
+        <v>211.2845511903368</v>
       </c>
       <c r="AD7" t="n">
-        <v>118784.1095672784</v>
+        <v>170712.8059608442</v>
       </c>
       <c r="AE7" t="n">
-        <v>162525.6590949464</v>
+        <v>233576.7924329864</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.014413997382489e-06</v>
+        <v>4.331161310016746e-06</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>147014.4382971647</v>
+        <v>211284.5511903368</v>
       </c>
     </row>
   </sheetData>
@@ -8179,28 +8179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.707555413845</v>
+        <v>148.5386611790004</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.3702290391452</v>
+        <v>203.2371492882568</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3054212151047</v>
+        <v>183.8404810053739</v>
       </c>
       <c r="AD2" t="n">
-        <v>107707.555413845</v>
+        <v>148538.6611790004</v>
       </c>
       <c r="AE2" t="n">
-        <v>147370.2290391452</v>
+        <v>203237.1492882568</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.325498062453458e-06</v>
+        <v>4.964671620384055e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>133305.4212151047</v>
+        <v>183840.4810053739</v>
       </c>
     </row>
     <row r="3">
@@ -8285,28 +8285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.7507190370697</v>
+        <v>148.5818248022251</v>
       </c>
       <c r="AB3" t="n">
-        <v>147.4292874126859</v>
+        <v>203.2962076617975</v>
       </c>
       <c r="AC3" t="n">
-        <v>133.3588431403636</v>
+        <v>183.8939029306329</v>
       </c>
       <c r="AD3" t="n">
-        <v>107750.7190370697</v>
+        <v>148581.8248022251</v>
       </c>
       <c r="AE3" t="n">
-        <v>147429.2874126859</v>
+        <v>203296.2076617975</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.324642771228064e-06</v>
+        <v>4.963394746967162e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>133358.8431403636</v>
+        <v>183893.9029306329</v>
       </c>
     </row>
   </sheetData>
@@ -8582,28 +8582,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.3089234429395</v>
+        <v>280.8732007405285</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.3857031124926</v>
+        <v>384.3031045042782</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.0534535523794</v>
+        <v>347.6257555831838</v>
       </c>
       <c r="AD2" t="n">
-        <v>209308.9234429395</v>
+        <v>280873.2007405285</v>
       </c>
       <c r="AE2" t="n">
-        <v>286385.7031124926</v>
+        <v>384303.1045042782</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.967704618933986e-06</v>
+        <v>2.778513885462917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.71354166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>259053.4535523794</v>
+        <v>347625.7555831838</v>
       </c>
     </row>
     <row r="3">
@@ -8688,28 +8688,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>187.8159154229183</v>
+        <v>250.3387391054636</v>
       </c>
       <c r="AB3" t="n">
-        <v>256.9780213349216</v>
+        <v>342.5245070096459</v>
       </c>
       <c r="AC3" t="n">
-        <v>232.4523996497097</v>
+        <v>309.8344487969123</v>
       </c>
       <c r="AD3" t="n">
-        <v>187815.9154229183</v>
+        <v>250338.7391054636</v>
       </c>
       <c r="AE3" t="n">
-        <v>256978.0213349215</v>
+        <v>342524.5070096459</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.190417068007021e-06</v>
+        <v>3.092996875572542e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.21614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>232452.3996497097</v>
+        <v>309834.4487969123</v>
       </c>
     </row>
     <row r="4">
@@ -8794,28 +8794,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.024120083917</v>
+        <v>224.6760823520142</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.0027461503842</v>
+        <v>307.4117278830818</v>
       </c>
       <c r="AC4" t="n">
-        <v>211.6698524827761</v>
+        <v>278.0727840290813</v>
       </c>
       <c r="AD4" t="n">
-        <v>171024.120083917</v>
+        <v>224676.0823520143</v>
       </c>
       <c r="AE4" t="n">
-        <v>234002.7461503842</v>
+        <v>307411.7278830818</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.360369544867786e-06</v>
+        <v>3.332979702406721e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>211669.8524827761</v>
+        <v>278072.7840290813</v>
       </c>
     </row>
     <row r="5">
@@ -8900,28 +8900,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.9972321260745</v>
+        <v>210.7344457401923</v>
       </c>
       <c r="AB5" t="n">
-        <v>214.8105392238512</v>
+        <v>288.336165609198</v>
       </c>
       <c r="AC5" t="n">
-        <v>194.3093228488737</v>
+        <v>260.8177666458912</v>
       </c>
       <c r="AD5" t="n">
-        <v>156997.2321260745</v>
+        <v>210734.4457401923</v>
       </c>
       <c r="AE5" t="n">
-        <v>214810.5392238512</v>
+        <v>288336.165609198</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.490991052135838e-06</v>
+        <v>3.517424902256382e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.62760416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>194309.3228488737</v>
+        <v>260817.7666458912</v>
       </c>
     </row>
     <row r="6">
@@ -9006,28 +9006,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>153.7067349852778</v>
+        <v>207.2733563988034</v>
       </c>
       <c r="AB6" t="n">
-        <v>210.308335869327</v>
+        <v>283.6005504798269</v>
       </c>
       <c r="AC6" t="n">
-        <v>190.2368034636217</v>
+        <v>256.5341119779881</v>
       </c>
       <c r="AD6" t="n">
-        <v>153706.7349852778</v>
+        <v>207273.3563988034</v>
       </c>
       <c r="AE6" t="n">
-        <v>210308.335869327</v>
+        <v>283600.5504798269</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.574144147826479e-06</v>
+        <v>3.634841931607485e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH6" t="n">
-        <v>190236.8034636217</v>
+        <v>256534.1119779881</v>
       </c>
     </row>
     <row r="7">
@@ -9112,28 +9112,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>141.5247549287413</v>
+        <v>195.1766276882875</v>
       </c>
       <c r="AB7" t="n">
-        <v>193.640413324952</v>
+        <v>267.0492725881011</v>
       </c>
       <c r="AC7" t="n">
-        <v>175.1596440533004</v>
+        <v>241.562464818379</v>
       </c>
       <c r="AD7" t="n">
-        <v>141524.7549287413</v>
+        <v>195176.6276882875</v>
       </c>
       <c r="AE7" t="n">
-        <v>193640.413324952</v>
+        <v>267049.2725881012</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.665434685501819e-06</v>
+        <v>3.763749504472626e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH7" t="n">
-        <v>175159.6440533003</v>
+        <v>241562.464818379</v>
       </c>
     </row>
     <row r="8">
@@ -9218,28 +9218,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>138.9441287432301</v>
+        <v>192.5960015027763</v>
       </c>
       <c r="AB8" t="n">
-        <v>190.1094867287451</v>
+        <v>263.5183459918944</v>
       </c>
       <c r="AC8" t="n">
-        <v>171.9657041357478</v>
+        <v>238.3685249008264</v>
       </c>
       <c r="AD8" t="n">
-        <v>138944.1287432301</v>
+        <v>192596.0015027763</v>
       </c>
       <c r="AE8" t="n">
-        <v>190109.4867287451</v>
+        <v>263518.3459918944</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.733624670657754e-06</v>
+        <v>3.860037747526058e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>171965.7041357477</v>
+        <v>238368.5249008264</v>
       </c>
     </row>
     <row r="9">
@@ -9324,28 +9324,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>137.6164392596873</v>
+        <v>182.3121992587648</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.2928834038366</v>
+        <v>249.4475940723097</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.3224748825492</v>
+        <v>225.6406657960181</v>
       </c>
       <c r="AD9" t="n">
-        <v>137616.4392596873</v>
+        <v>182312.1992587649</v>
       </c>
       <c r="AE9" t="n">
-        <v>188292.8834038366</v>
+        <v>249447.5940723097</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.773111274386786e-06</v>
+        <v>3.915795139004014e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>170322.4748825492</v>
+        <v>225640.6657960181</v>
       </c>
     </row>
     <row r="10">
@@ -9430,28 +9430,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>135.4777170297197</v>
+        <v>180.1734770287972</v>
       </c>
       <c r="AB10" t="n">
-        <v>185.3665892950307</v>
+        <v>246.5212999635038</v>
       </c>
       <c r="AC10" t="n">
-        <v>167.6754621764072</v>
+        <v>222.9936530898761</v>
       </c>
       <c r="AD10" t="n">
-        <v>135477.7170297196</v>
+        <v>180173.4770287972</v>
       </c>
       <c r="AE10" t="n">
-        <v>185366.5892950307</v>
+        <v>246521.2999635038</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.82569337901469e-06</v>
+        <v>3.990044142858388e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>167675.4621764072</v>
+        <v>222993.6530898761</v>
       </c>
     </row>
     <row r="11">
@@ -9536,28 +9536,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>135.5888143156588</v>
+        <v>180.2845743147364</v>
       </c>
       <c r="AB11" t="n">
-        <v>185.518597502919</v>
+        <v>246.6733081713921</v>
       </c>
       <c r="AC11" t="n">
-        <v>167.8129629342795</v>
+        <v>223.1311538477484</v>
       </c>
       <c r="AD11" t="n">
-        <v>135588.8143156588</v>
+        <v>180284.5743147364</v>
       </c>
       <c r="AE11" t="n">
-        <v>185518.597502919</v>
+        <v>246673.308171392</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.82229166146371e-06</v>
+        <v>3.985240718930388e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>167812.9629342795</v>
+        <v>223131.1538477484</v>
       </c>
     </row>
     <row r="12">
@@ -9642,28 +9642,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>135.6212843015519</v>
+        <v>180.3170443006295</v>
       </c>
       <c r="AB12" t="n">
-        <v>185.5630243700925</v>
+        <v>246.7177350385656</v>
       </c>
       <c r="AC12" t="n">
-        <v>167.8531497636035</v>
+        <v>223.1713406770725</v>
       </c>
       <c r="AD12" t="n">
-        <v>135621.2843015519</v>
+        <v>180317.0443006295</v>
       </c>
       <c r="AE12" t="n">
-        <v>185563.0243700925</v>
+        <v>246717.7350385656</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.822091560431299e-06</v>
+        <v>3.984958164581682e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>167853.1497636035</v>
+        <v>223171.3406770725</v>
       </c>
     </row>
   </sheetData>
@@ -9939,28 +9939,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.5153594025246</v>
+        <v>177.9345598779705</v>
       </c>
       <c r="AB2" t="n">
-        <v>174.4721403150811</v>
+        <v>243.4579147436906</v>
       </c>
       <c r="AC2" t="n">
-        <v>157.8207641166453</v>
+        <v>220.2226330559528</v>
       </c>
       <c r="AD2" t="n">
-        <v>127515.3594025246</v>
+        <v>177934.5598779705</v>
       </c>
       <c r="AE2" t="n">
-        <v>174472.1403150811</v>
+        <v>243457.9147436906</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.932660476855635e-06</v>
+        <v>4.293304614500404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>157820.7641166453</v>
+        <v>220222.6330559528</v>
       </c>
     </row>
     <row r="3">
@@ -10045,28 +10045,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.5485058488776</v>
+        <v>164.5503722778715</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.6762721608708</v>
+        <v>225.1450788005608</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.6734840810097</v>
+        <v>203.6575484730027</v>
       </c>
       <c r="AD3" t="n">
-        <v>122548.5058488776</v>
+        <v>164550.3722778715</v>
       </c>
       <c r="AE3" t="n">
-        <v>167676.2721608708</v>
+        <v>225145.0788005608</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.134887111798089e-06</v>
+        <v>4.58935680050191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>151673.4840810098</v>
+        <v>203657.5484730027</v>
       </c>
     </row>
     <row r="4">
@@ -10151,28 +10151,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.8163795697869</v>
+        <v>154.9034973448015</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.3603476347163</v>
+        <v>211.9457989270556</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.6284127026098</v>
+        <v>191.717989345315</v>
       </c>
       <c r="AD4" t="n">
-        <v>112816.3795697869</v>
+        <v>154903.4973448015</v>
       </c>
       <c r="AE4" t="n">
-        <v>154360.3476347163</v>
+        <v>211945.7989270556</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.183445650648152e-06</v>
+        <v>4.660444674657018e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>139628.4127026098</v>
+        <v>191717.989345315</v>
       </c>
     </row>
   </sheetData>
@@ -10448,28 +10448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.3532449603949</v>
+        <v>234.0265032877883</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.1355104952027</v>
+        <v>320.2053863188596</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.4538056339889</v>
+        <v>289.6454336597648</v>
       </c>
       <c r="AD2" t="n">
-        <v>181353.2449603949</v>
+        <v>234026.5032877883</v>
       </c>
       <c r="AE2" t="n">
-        <v>248135.5104952027</v>
+        <v>320205.3863188595</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.258358047447554e-06</v>
+        <v>3.224509849949161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.1640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>224453.8056339889</v>
+        <v>289645.4336597648</v>
       </c>
     </row>
     <row r="3">
@@ -10554,28 +10554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.5075678388129</v>
+        <v>215.7889164183192</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.4040707097853</v>
+        <v>295.2519153785165</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.2279629087805</v>
+        <v>267.0734869635438</v>
       </c>
       <c r="AD3" t="n">
-        <v>154507.5678388129</v>
+        <v>215788.9164183192</v>
       </c>
       <c r="AE3" t="n">
-        <v>211404.0707097853</v>
+        <v>295251.9153785165</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.483563778378453e-06</v>
+        <v>3.546061208234632e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.96614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>191227.9629087805</v>
+        <v>267073.4869635438</v>
       </c>
     </row>
     <row r="4">
@@ -10660,28 +10660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.7601721907207</v>
+        <v>192.654569048307</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.5402304268685</v>
+        <v>263.5984806915072</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.1146365054936</v>
+        <v>238.441011657178</v>
       </c>
       <c r="AD4" t="n">
-        <v>148760.1721907207</v>
+        <v>192654.569048307</v>
       </c>
       <c r="AE4" t="n">
-        <v>203540.2304268685</v>
+        <v>263598.4806915072</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.65219983863051e-06</v>
+        <v>3.786841733693808e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.2109375</v>
       </c>
       <c r="AH4" t="n">
-        <v>184114.6365054936</v>
+        <v>238441.011657178</v>
       </c>
     </row>
     <row r="5">
@@ -10766,28 +10766,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>136.3608115273365</v>
+        <v>188.9486394916072</v>
       </c>
       <c r="AB5" t="n">
-        <v>186.574878146049</v>
+        <v>258.5278643779599</v>
       </c>
       <c r="AC5" t="n">
-        <v>168.7684336353288</v>
+        <v>233.8543278479393</v>
       </c>
       <c r="AD5" t="n">
-        <v>136360.8115273365</v>
+        <v>188948.6394916072</v>
       </c>
       <c r="AE5" t="n">
-        <v>186574.878146049</v>
+        <v>258527.8643779599</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.758125291394765e-06</v>
+        <v>3.93808332542666e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.78125</v>
       </c>
       <c r="AH5" t="n">
-        <v>168768.4336353288</v>
+        <v>233854.3278479393</v>
       </c>
     </row>
     <row r="6">
@@ -10872,28 +10872,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.5059357152958</v>
+        <v>176.3149917183105</v>
       </c>
       <c r="AB6" t="n">
-        <v>181.3004669948995</v>
+        <v>241.2419501373405</v>
       </c>
       <c r="AC6" t="n">
-        <v>163.9974048817606</v>
+        <v>218.2181570015062</v>
       </c>
       <c r="AD6" t="n">
-        <v>132505.9357152958</v>
+        <v>176314.9917183105</v>
       </c>
       <c r="AE6" t="n">
-        <v>181300.4669948995</v>
+        <v>241241.9501373405</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.883135588665683e-06</v>
+        <v>4.116574479807931e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>163997.4048817607</v>
+        <v>218218.1570015062</v>
       </c>
     </row>
     <row r="7">
@@ -10978,28 +10978,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.7604569861757</v>
+        <v>174.5695129891905</v>
       </c>
       <c r="AB7" t="n">
-        <v>178.9122259926318</v>
+        <v>238.8537091350728</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.8370942488313</v>
+        <v>216.0578463685769</v>
       </c>
       <c r="AD7" t="n">
-        <v>130760.4569861757</v>
+        <v>174569.5129891905</v>
       </c>
       <c r="AE7" t="n">
-        <v>178912.2259926318</v>
+        <v>238853.7091350729</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.934819904411e-06</v>
+        <v>4.19036994611896e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>161837.0942488313</v>
+        <v>216057.8463685769</v>
       </c>
     </row>
     <row r="8">
@@ -11084,28 +11084,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>130.0393747731577</v>
+        <v>173.8484307761725</v>
       </c>
       <c r="AB8" t="n">
-        <v>177.925609496879</v>
+        <v>237.8670926393201</v>
       </c>
       <c r="AC8" t="n">
-        <v>160.9446390467079</v>
+        <v>215.1653911664535</v>
       </c>
       <c r="AD8" t="n">
-        <v>130039.3747731577</v>
+        <v>173848.4307761725</v>
       </c>
       <c r="AE8" t="n">
-        <v>177925.609496879</v>
+        <v>237867.0926393201</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.958698788805701e-06</v>
+        <v>4.224464494600116e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>160944.6390467079</v>
+        <v>215165.3911664535</v>
       </c>
     </row>
     <row r="9">
@@ -11190,28 +11190,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>130.101888389797</v>
+        <v>173.9109443928117</v>
       </c>
       <c r="AB9" t="n">
-        <v>178.0111433850709</v>
+        <v>237.952626527512</v>
       </c>
       <c r="AC9" t="n">
-        <v>161.0220097006584</v>
+        <v>215.242761820404</v>
       </c>
       <c r="AD9" t="n">
-        <v>130101.888389797</v>
+        <v>173910.9443928117</v>
       </c>
       <c r="AE9" t="n">
-        <v>178011.1433850709</v>
+        <v>237952.626527512</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.957945439680438e-06</v>
+        <v>4.223388853969257e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>161022.0097006584</v>
+        <v>215242.761820404</v>
       </c>
     </row>
   </sheetData>
@@ -11487,28 +11487,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.1230815226411</v>
+        <v>147.8742738478192</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.3070143098035</v>
+        <v>202.3281052310349</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.0573624178272</v>
+        <v>183.0181948371216</v>
       </c>
       <c r="AD2" t="n">
-        <v>109123.0815226411</v>
+        <v>147874.2738478192</v>
       </c>
       <c r="AE2" t="n">
-        <v>149307.0143098035</v>
+        <v>202328.1052310349</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.429909175476648e-06</v>
+        <v>5.306492858150348e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>135057.3624178272</v>
+        <v>183018.1948371216</v>
       </c>
     </row>
   </sheetData>
@@ -11784,28 +11784,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.9981189116387</v>
+        <v>145.105446470361</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.663058484926</v>
+        <v>198.5396734611556</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.9520578155324</v>
+        <v>179.591325678261</v>
       </c>
       <c r="AD2" t="n">
-        <v>104998.1189116387</v>
+        <v>145105.446470361</v>
       </c>
       <c r="AE2" t="n">
-        <v>143663.058484926</v>
+        <v>198539.6734611556</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.393979727637569e-06</v>
+        <v>5.129301091384354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.8828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>129952.0578155324</v>
+        <v>179591.325678261</v>
       </c>
     </row>
   </sheetData>
@@ -12081,28 +12081,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.3849403827151</v>
+        <v>286.3713535615652</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.645130479524</v>
+        <v>391.825919755404</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.4747882022834</v>
+        <v>354.4306039050797</v>
       </c>
       <c r="AD2" t="n">
-        <v>223384.9403827151</v>
+        <v>286371.3535615652</v>
       </c>
       <c r="AE2" t="n">
-        <v>305645.130479524</v>
+        <v>391825.9197554039</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.906040412915519e-06</v>
+        <v>2.684675327065005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.09114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>276474.7882022834</v>
+        <v>354430.6039050797</v>
       </c>
     </row>
     <row r="3">
@@ -12187,28 +12187,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>191.2370717725719</v>
+        <v>254.0528032422752</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.6589983832812</v>
+        <v>347.6062534145746</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.6866308183679</v>
+        <v>314.4312004572321</v>
       </c>
       <c r="AD3" t="n">
-        <v>191237.0717725719</v>
+        <v>254052.8032422752</v>
       </c>
       <c r="AE3" t="n">
-        <v>261658.9983832812</v>
+        <v>347606.2534145745</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.138130267034093e-06</v>
+        <v>3.011576005976197e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.46354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>236686.6308183679</v>
+        <v>314431.2004572321</v>
       </c>
     </row>
     <row r="4">
@@ -12293,28 +12293,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.6107754603063</v>
+        <v>228.6843937465597</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.9101662684253</v>
+        <v>312.8960763673145</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.1089153123603</v>
+        <v>283.0337139913121</v>
       </c>
       <c r="AD4" t="n">
-        <v>174610.7754603064</v>
+        <v>228684.3937465597</v>
       </c>
       <c r="AE4" t="n">
-        <v>238910.1662684254</v>
+        <v>312896.0763673146</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.297629892572307e-06</v>
+        <v>3.236232685056552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>216108.9153123603</v>
+        <v>283033.7139913121</v>
       </c>
     </row>
     <row r="5">
@@ -12399,28 +12399,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.7054284362771</v>
+        <v>223.5210703974293</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.8842570095433</v>
+        <v>305.8313895712882</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.8988121301085</v>
+        <v>276.6432709877461</v>
       </c>
       <c r="AD5" t="n">
-        <v>160705.4284362771</v>
+        <v>223521.0703974293</v>
       </c>
       <c r="AE5" t="n">
-        <v>219884.2570095433</v>
+        <v>305831.3895712883</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.408581350015834e-06</v>
+        <v>3.392508826046089e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.94010416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>198898.8121301085</v>
+        <v>276643.2709877461</v>
       </c>
     </row>
     <row r="6">
@@ -12505,28 +12505,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>156.7867594403467</v>
+        <v>210.6044446714363</v>
       </c>
       <c r="AB6" t="n">
-        <v>214.5225612098392</v>
+        <v>288.1582924116839</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.0488290523391</v>
+        <v>260.6568694167011</v>
       </c>
       <c r="AD6" t="n">
-        <v>156786.7594403467</v>
+        <v>210604.4446714363</v>
       </c>
       <c r="AE6" t="n">
-        <v>214522.5612098392</v>
+        <v>288158.2924116839</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.510517034777234e-06</v>
+        <v>3.536086168883118e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>194048.8290523391</v>
+        <v>260656.8694167011</v>
       </c>
     </row>
     <row r="7">
@@ -12611,28 +12611,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>153.6314393878433</v>
+        <v>198.6217600894625</v>
       </c>
       <c r="AB7" t="n">
-        <v>210.2053131111099</v>
+        <v>271.7630547279012</v>
       </c>
       <c r="AC7" t="n">
-        <v>190.1436130528554</v>
+        <v>245.8263702065928</v>
       </c>
       <c r="AD7" t="n">
-        <v>153631.4393878433</v>
+        <v>198621.7600894625</v>
       </c>
       <c r="AE7" t="n">
-        <v>210205.3131111099</v>
+        <v>271763.0547279012</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.596984482093808e-06</v>
+        <v>3.657876358027124e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>190143.6130528554</v>
+        <v>245826.3702065928</v>
       </c>
     </row>
     <row r="8">
@@ -12717,28 +12717,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>140.8667342785367</v>
+        <v>194.7696708556468</v>
       </c>
       <c r="AB8" t="n">
-        <v>192.7400804415203</v>
+        <v>266.4924562960143</v>
       </c>
       <c r="AC8" t="n">
-        <v>174.3452376766379</v>
+        <v>241.0587902917121</v>
       </c>
       <c r="AD8" t="n">
-        <v>140866.7342785367</v>
+        <v>194769.6708556468</v>
       </c>
       <c r="AE8" t="n">
-        <v>192740.0804415203</v>
+        <v>266492.4562960143</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.685993139847747e-06</v>
+        <v>3.783245865277842e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>174345.2376766379</v>
+        <v>241058.7902917121</v>
       </c>
     </row>
     <row r="9">
@@ -12823,28 +12823,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>140.3642224266539</v>
+        <v>194.267159003764</v>
       </c>
       <c r="AB9" t="n">
-        <v>192.0525215565162</v>
+        <v>265.8048974110102</v>
       </c>
       <c r="AC9" t="n">
-        <v>173.7232984466235</v>
+        <v>240.4368510616977</v>
       </c>
       <c r="AD9" t="n">
-        <v>140364.2224266539</v>
+        <v>194267.159003764</v>
       </c>
       <c r="AE9" t="n">
-        <v>192052.5215565162</v>
+        <v>265804.8974110102</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.705637801402675e-06</v>
+        <v>3.810915550467982e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>173723.2984466235</v>
+        <v>240436.8510616977</v>
       </c>
     </row>
     <row r="10">
@@ -12929,28 +12929,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>138.220944901924</v>
+        <v>183.1259247489716</v>
       </c>
       <c r="AB10" t="n">
-        <v>189.1199946924513</v>
+        <v>250.5609691870451</v>
       </c>
       <c r="AC10" t="n">
-        <v>171.0706478306367</v>
+        <v>226.6477819524352</v>
       </c>
       <c r="AD10" t="n">
-        <v>138220.944901924</v>
+        <v>183125.9247489716</v>
       </c>
       <c r="AE10" t="n">
-        <v>189119.9946924513</v>
+        <v>250560.9691870451</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.7577878590738e-06</v>
+        <v>3.88436938291875e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.4296875</v>
       </c>
       <c r="AH10" t="n">
-        <v>171070.6478306366</v>
+        <v>226647.7819524352</v>
       </c>
     </row>
     <row r="11">
@@ -13035,28 +13035,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>137.1128647411994</v>
+        <v>182.017844588247</v>
       </c>
       <c r="AB11" t="n">
-        <v>187.603870531502</v>
+        <v>249.0448450260958</v>
       </c>
       <c r="AC11" t="n">
-        <v>169.6992204317143</v>
+        <v>225.2763545535129</v>
       </c>
       <c r="AD11" t="n">
-        <v>137112.8647411994</v>
+        <v>182017.844588247</v>
       </c>
       <c r="AE11" t="n">
-        <v>187603.870531502</v>
+        <v>249044.8450260958</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.779266611640043e-06</v>
+        <v>3.914622402046778e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH11" t="n">
-        <v>169699.2204317143</v>
+        <v>225276.3545535129</v>
       </c>
     </row>
     <row r="12">
@@ -13141,28 +13141,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>137.0431324951196</v>
+        <v>181.9481123421671</v>
       </c>
       <c r="AB12" t="n">
-        <v>187.5084597960461</v>
+        <v>248.9494342906398</v>
       </c>
       <c r="AC12" t="n">
-        <v>169.6129155629404</v>
+        <v>225.190049684739</v>
       </c>
       <c r="AD12" t="n">
-        <v>137043.1324951196</v>
+        <v>181948.1123421671</v>
       </c>
       <c r="AE12" t="n">
-        <v>187508.4597960461</v>
+        <v>248949.4342906398</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.778294322429226e-06</v>
+        <v>3.913252923814645e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH12" t="n">
-        <v>169612.9155629404</v>
+        <v>225190.049684739</v>
       </c>
     </row>
   </sheetData>
@@ -13438,28 +13438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.3684543463146</v>
+        <v>151.6359833145892</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.5380118815813</v>
+        <v>207.4750420783761</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.6480682915252</v>
+        <v>187.6739152555255</v>
       </c>
       <c r="AD2" t="n">
-        <v>106368.4543463146</v>
+        <v>151635.9833145892</v>
       </c>
       <c r="AE2" t="n">
-        <v>145538.0118815813</v>
+        <v>207475.0420783761</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.382371054120803e-06</v>
+        <v>5.345796829920138e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.76822916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>131648.0682915252</v>
+        <v>187673.9152555255</v>
       </c>
     </row>
   </sheetData>
@@ -13735,28 +13735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.9338376480739</v>
+        <v>182.304840418826</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.4636501152271</v>
+        <v>249.4375253828564</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.1906280692046</v>
+        <v>225.6315580481547</v>
       </c>
       <c r="AD2" t="n">
-        <v>139933.8376480739</v>
+        <v>182304.840418826</v>
       </c>
       <c r="AE2" t="n">
-        <v>191463.6501152271</v>
+        <v>249437.5253828564</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.810933380335107e-06</v>
+        <v>4.098021234225723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>173190.6280692046</v>
+        <v>225631.5580481547</v>
       </c>
     </row>
     <row r="3">
@@ -13841,28 +13841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.7848798529933</v>
+        <v>168.0705417691738</v>
       </c>
       <c r="AB3" t="n">
-        <v>172.104421852044</v>
+        <v>229.9615299974756</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.679017380606</v>
+        <v>208.0143243276173</v>
       </c>
       <c r="AD3" t="n">
-        <v>125784.8798529933</v>
+        <v>168070.5417691738</v>
       </c>
       <c r="AE3" t="n">
-        <v>172104.421852044</v>
+        <v>229961.5299974756</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.02766338642784e-06</v>
+        <v>4.41398893850337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>155679.0173806059</v>
+        <v>208014.3243276173</v>
       </c>
     </row>
     <row r="4">
@@ -13947,28 +13947,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>114.1378260309537</v>
+        <v>156.5087392931548</v>
       </c>
       <c r="AB4" t="n">
-        <v>156.1684089809872</v>
+        <v>214.142161779068</v>
       </c>
       <c r="AC4" t="n">
-        <v>141.2639152116231</v>
+        <v>193.7047344093467</v>
       </c>
       <c r="AD4" t="n">
-        <v>114137.8260309537</v>
+        <v>156508.7392931548</v>
       </c>
       <c r="AE4" t="n">
-        <v>156168.4089809872</v>
+        <v>214142.161779068</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.149536624920751e-06</v>
+        <v>4.591666261887059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>141263.9152116231</v>
+        <v>193704.7344093467</v>
       </c>
     </row>
     <row r="5">
@@ -14053,28 +14053,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.8725763630438</v>
+        <v>156.2434896252449</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.8054826833635</v>
+        <v>213.7792354814444</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.9356260904744</v>
+        <v>193.3764452881979</v>
       </c>
       <c r="AD5" t="n">
-        <v>113872.5763630438</v>
+        <v>156243.4896252449</v>
       </c>
       <c r="AE5" t="n">
-        <v>155805.4826833635</v>
+        <v>213779.2354814444</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.162721811335358e-06</v>
+        <v>4.610888764377616e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>140935.6260904744</v>
+        <v>193376.445288198</v>
       </c>
     </row>
   </sheetData>
@@ -14350,28 +14350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.6420422086534</v>
+        <v>157.0836218943234</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.1218115659919</v>
+        <v>214.9287415160169</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.4126421814969</v>
+        <v>194.416244080173</v>
       </c>
       <c r="AD2" t="n">
-        <v>112642.0422086534</v>
+        <v>157083.6218943234</v>
       </c>
       <c r="AE2" t="n">
-        <v>154121.8115659919</v>
+        <v>214928.7415160169</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.300254541483643e-06</v>
+        <v>5.287782997585307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.30208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>139412.6421814969</v>
+        <v>194416.244080173</v>
       </c>
     </row>
   </sheetData>
@@ -14647,28 +14647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>185.6938379686857</v>
+        <v>247.4675810441267</v>
       </c>
       <c r="AB2" t="n">
-        <v>254.074501342592</v>
+        <v>338.5960618835727</v>
       </c>
       <c r="AC2" t="n">
-        <v>229.8259875303312</v>
+        <v>306.2809289600629</v>
       </c>
       <c r="AD2" t="n">
-        <v>185693.8379686857</v>
+        <v>247467.5810441267</v>
       </c>
       <c r="AE2" t="n">
-        <v>254074.5013425919</v>
+        <v>338596.0618835727</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.184325514339285e-06</v>
+        <v>3.109637656547034e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>229825.9875303312</v>
+        <v>306280.9289600629</v>
       </c>
     </row>
     <row r="3">
@@ -14753,28 +14753,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.5097518039276</v>
+        <v>219.3734230939992</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.8259883098332</v>
+        <v>300.1563955494532</v>
       </c>
       <c r="AC3" t="n">
-        <v>206.0825957413912</v>
+        <v>271.509890430449</v>
       </c>
       <c r="AD3" t="n">
-        <v>166509.7518039276</v>
+        <v>219373.4230939992</v>
       </c>
       <c r="AE3" t="n">
-        <v>227825.9883098332</v>
+        <v>300156.3955494532</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.420947364455626e-06</v>
+        <v>3.446495973063183e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>206082.5957413912</v>
+        <v>271509.890430449</v>
       </c>
     </row>
     <row r="4">
@@ -14859,28 +14859,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.2656008943262</v>
+        <v>205.2145235304184</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.336512627739</v>
+        <v>280.7835645200083</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.453168264739</v>
+        <v>253.985975204509</v>
       </c>
       <c r="AD4" t="n">
-        <v>152265.6008943262</v>
+        <v>205214.5235304184</v>
       </c>
       <c r="AE4" t="n">
-        <v>208336.5126277391</v>
+        <v>280783.5645200083</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.565772542049109e-06</v>
+        <v>3.652671207891693e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.51041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>188453.168264739</v>
+        <v>253985.975204509</v>
       </c>
     </row>
     <row r="5">
@@ -14965,28 +14965,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.2067645213439</v>
+        <v>192.0703463028645</v>
       </c>
       <c r="AB5" t="n">
-        <v>190.468836587033</v>
+        <v>262.7991213571046</v>
       </c>
       <c r="AC5" t="n">
-        <v>172.2907581479114</v>
+        <v>237.7179420557427</v>
       </c>
       <c r="AD5" t="n">
-        <v>139206.7645213439</v>
+        <v>192070.3463028645</v>
       </c>
       <c r="AE5" t="n">
-        <v>190468.836587033</v>
+        <v>262799.1213571046</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.687790248030344e-06</v>
+        <v>3.826377393528362e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>172290.7581479115</v>
+        <v>237717.9420557427</v>
       </c>
     </row>
     <row r="6">
@@ -15071,28 +15071,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.5461448921039</v>
+        <v>179.755587943419</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.4602153151691</v>
+        <v>245.9495256809244</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.7601526605885</v>
+        <v>222.4764481423356</v>
       </c>
       <c r="AD6" t="n">
-        <v>135546.1448921039</v>
+        <v>179755.587943419</v>
       </c>
       <c r="AE6" t="n">
-        <v>185460.2153151691</v>
+        <v>245949.5256809244</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.802893163910449e-06</v>
+        <v>3.990239583137683e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.53385416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>167760.1526605885</v>
+        <v>222476.4481423356</v>
       </c>
     </row>
     <row r="7">
@@ -15177,28 +15177,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.4215293613397</v>
+        <v>177.4603802120626</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.553222614557</v>
+        <v>242.8091212054654</v>
       </c>
       <c r="AC7" t="n">
-        <v>165.130599263332</v>
+        <v>219.6357594624281</v>
       </c>
       <c r="AD7" t="n">
-        <v>133421.5293613397</v>
+        <v>177460.3802120626</v>
       </c>
       <c r="AE7" t="n">
-        <v>182553.222614557</v>
+        <v>242809.1212054654</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.863561945256749e-06</v>
+        <v>4.076608545003853e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH7" t="n">
-        <v>165130.599263332</v>
+        <v>219635.7594624281</v>
       </c>
     </row>
     <row r="8">
@@ -15283,28 +15283,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.9739291139908</v>
+        <v>176.0127799647137</v>
       </c>
       <c r="AB8" t="n">
-        <v>180.5725520925195</v>
+        <v>240.828450683428</v>
       </c>
       <c r="AC8" t="n">
-        <v>163.3389611560287</v>
+        <v>217.8441213551248</v>
       </c>
       <c r="AD8" t="n">
-        <v>131973.9291139908</v>
+        <v>176012.7799647137</v>
       </c>
       <c r="AE8" t="n">
-        <v>180572.5520925195</v>
+        <v>240828.450683428</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.908451402306701e-06</v>
+        <v>4.140513830689584e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH8" t="n">
-        <v>163338.9611560287</v>
+        <v>217844.1213551248</v>
       </c>
     </row>
     <row r="9">
@@ -15389,28 +15389,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>131.7658120517967</v>
+        <v>175.8046629025196</v>
       </c>
       <c r="AB9" t="n">
-        <v>180.2877971465489</v>
+        <v>240.5436957374574</v>
       </c>
       <c r="AC9" t="n">
-        <v>163.0813828224454</v>
+        <v>217.5865430215415</v>
       </c>
       <c r="AD9" t="n">
-        <v>131765.8120517967</v>
+        <v>175804.6629025196</v>
       </c>
       <c r="AE9" t="n">
-        <v>180287.797146549</v>
+        <v>240543.6957374574</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.904619928447388e-06</v>
+        <v>4.13505928862853e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>163081.3828224454</v>
+        <v>217586.5430215415</v>
       </c>
     </row>
   </sheetData>
@@ -15686,28 +15686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.5722817641847</v>
+        <v>301.8843439744297</v>
       </c>
       <c r="AB2" t="n">
-        <v>314.1109239238833</v>
+        <v>413.0514776231207</v>
       </c>
       <c r="AC2" t="n">
-        <v>284.1326182021315</v>
+        <v>373.6304243201591</v>
       </c>
       <c r="AD2" t="n">
-        <v>229572.2817641847</v>
+        <v>301884.3439744296</v>
       </c>
       <c r="AE2" t="n">
-        <v>314110.9239238832</v>
+        <v>413051.4776231206</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.834115779282228e-06</v>
+        <v>2.577104006422884e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.59895833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>284132.6182021315</v>
+        <v>373630.4243201591</v>
       </c>
     </row>
     <row r="3">
@@ -15792,28 +15792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>195.9917783610154</v>
+        <v>259.2648327949797</v>
       </c>
       <c r="AB3" t="n">
-        <v>268.1645977004366</v>
+        <v>354.7375821872647</v>
       </c>
       <c r="AC3" t="n">
-        <v>242.5713448673621</v>
+        <v>320.8819252206349</v>
       </c>
       <c r="AD3" t="n">
-        <v>195991.7783610154</v>
+        <v>259264.8327949797</v>
       </c>
       <c r="AE3" t="n">
-        <v>268164.5977004366</v>
+        <v>354737.5821872647</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.067328637418224e-06</v>
+        <v>2.90478985801444e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.84114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>242571.3448673621</v>
+        <v>320881.9252206349</v>
       </c>
     </row>
     <row r="4">
@@ -15898,28 +15898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.650750899691</v>
+        <v>241.8384644790805</v>
       </c>
       <c r="AB4" t="n">
-        <v>244.4378388957261</v>
+        <v>330.8940562601844</v>
       </c>
       <c r="AC4" t="n">
-        <v>221.1090346222505</v>
+        <v>299.3139919435355</v>
       </c>
       <c r="AD4" t="n">
-        <v>178650.750899691</v>
+        <v>241838.4644790805</v>
       </c>
       <c r="AE4" t="n">
-        <v>244437.8388957261</v>
+        <v>330894.0562601844</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.225022440616709e-06</v>
+        <v>3.126364382698982e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.8515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>221109.0346222505</v>
+        <v>299313.9919435355</v>
       </c>
     </row>
     <row r="5">
@@ -16004,28 +16004,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>172.9922687708625</v>
+        <v>227.1410640825228</v>
       </c>
       <c r="AB5" t="n">
-        <v>236.6956540124536</v>
+        <v>310.7844246340808</v>
       </c>
       <c r="AC5" t="n">
-        <v>214.1057529980103</v>
+        <v>281.1235953357756</v>
       </c>
       <c r="AD5" t="n">
-        <v>172992.2687708625</v>
+        <v>227141.0640825228</v>
       </c>
       <c r="AE5" t="n">
-        <v>236695.6540124536</v>
+        <v>310784.4246340808</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.350975396117491e-06</v>
+        <v>3.303340051251867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>214105.7529980103</v>
+        <v>281123.5953357756</v>
       </c>
     </row>
     <row r="6">
@@ -16110,28 +16110,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>159.7454401384323</v>
+        <v>213.9794867961132</v>
       </c>
       <c r="AB6" t="n">
-        <v>218.5707586687381</v>
+        <v>292.7761739430144</v>
       </c>
       <c r="AC6" t="n">
-        <v>197.7106722274428</v>
+        <v>264.8340268159204</v>
       </c>
       <c r="AD6" t="n">
-        <v>159745.4401384323</v>
+        <v>213979.4867961132</v>
       </c>
       <c r="AE6" t="n">
-        <v>218570.758668738</v>
+        <v>292776.1739430145</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.450107884463328e-06</v>
+        <v>3.44263045798001e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.6796875</v>
       </c>
       <c r="AH6" t="n">
-        <v>197710.6722274428</v>
+        <v>264834.0268159204</v>
       </c>
     </row>
     <row r="7">
@@ -16216,28 +16216,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>156.5197339275367</v>
+        <v>210.5831883846254</v>
       </c>
       <c r="AB7" t="n">
-        <v>214.1572051228785</v>
+        <v>288.1292086223081</v>
       </c>
       <c r="AC7" t="n">
-        <v>193.7183420375374</v>
+        <v>260.6305613433638</v>
       </c>
       <c r="AD7" t="n">
-        <v>156519.7339275367</v>
+        <v>210583.1883846254</v>
       </c>
       <c r="AE7" t="n">
-        <v>214157.2051228785</v>
+        <v>288129.208622308</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.534611027088286e-06</v>
+        <v>3.561365267349203e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.2890625</v>
       </c>
       <c r="AH7" t="n">
-        <v>193718.3420375374</v>
+        <v>260630.5613433638</v>
       </c>
     </row>
     <row r="8">
@@ -16322,28 +16322,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>144.0161491125855</v>
+        <v>198.1648549156947</v>
       </c>
       <c r="AB8" t="n">
-        <v>197.04924875984</v>
+        <v>271.1378969119187</v>
       </c>
       <c r="AC8" t="n">
-        <v>178.2431450186143</v>
+        <v>245.260876575153</v>
       </c>
       <c r="AD8" t="n">
-        <v>144016.1491125855</v>
+        <v>198164.8549156947</v>
       </c>
       <c r="AE8" t="n">
-        <v>197049.24875984</v>
+        <v>271137.8969119188</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.61603893187402e-06</v>
+        <v>3.675779080276574e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>178243.1450186143</v>
+        <v>245260.876575153</v>
       </c>
     </row>
     <row r="9">
@@ -16428,28 +16428,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.8314298346661</v>
+        <v>197.9801356377754</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.7965076945515</v>
+        <v>270.8851558466303</v>
       </c>
       <c r="AC9" t="n">
-        <v>178.0145252058726</v>
+        <v>245.0322567624113</v>
       </c>
       <c r="AD9" t="n">
-        <v>143831.4298346661</v>
+        <v>197980.1356377754</v>
       </c>
       <c r="AE9" t="n">
-        <v>196796.5076945515</v>
+        <v>270885.1558466303</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.629613910335736e-06</v>
+        <v>3.694853193141185e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>178014.5252058726</v>
+        <v>245032.2567624113</v>
       </c>
     </row>
     <row r="10">
@@ -16534,28 +16534,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>141.3836296823995</v>
+        <v>195.5323354855088</v>
       </c>
       <c r="AB10" t="n">
-        <v>193.4473195369008</v>
+        <v>267.5359676889797</v>
       </c>
       <c r="AC10" t="n">
-        <v>174.9849788653719</v>
+        <v>242.0027104219106</v>
       </c>
       <c r="AD10" t="n">
-        <v>141383.6296823995</v>
+        <v>195532.3354855088</v>
       </c>
       <c r="AE10" t="n">
-        <v>193447.3195369008</v>
+        <v>267535.9676889796</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.68879027275623e-06</v>
+        <v>3.778001510385949e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>174984.9788653719</v>
+        <v>242002.7104219106</v>
       </c>
     </row>
     <row r="11">
@@ -16640,28 +16640,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>139.1463734501745</v>
+        <v>184.2561609855547</v>
       </c>
       <c r="AB11" t="n">
-        <v>190.3862068591931</v>
+        <v>252.1074082684409</v>
       </c>
       <c r="AC11" t="n">
-        <v>172.216014485325</v>
+        <v>228.0466310583441</v>
       </c>
       <c r="AD11" t="n">
-        <v>139146.3734501745</v>
+        <v>184256.1609855547</v>
       </c>
       <c r="AE11" t="n">
-        <v>190386.2068591931</v>
+        <v>252107.4082684409</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.741750261544577e-06</v>
+        <v>3.852415241966173e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.4296875</v>
       </c>
       <c r="AH11" t="n">
-        <v>172216.014485325</v>
+        <v>228046.6310583441</v>
       </c>
     </row>
     <row r="12">
@@ -16746,28 +16746,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>137.9340444906788</v>
+        <v>183.043832026059</v>
       </c>
       <c r="AB12" t="n">
-        <v>188.7274448926329</v>
+        <v>250.4486463018807</v>
       </c>
       <c r="AC12" t="n">
-        <v>170.7155624327657</v>
+        <v>226.5461790057848</v>
       </c>
       <c r="AD12" t="n">
-        <v>137934.0444906788</v>
+        <v>183043.832026059</v>
       </c>
       <c r="AE12" t="n">
-        <v>188727.4448926329</v>
+        <v>250448.6463018807</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.766681654026856e-06</v>
+        <v>3.887446177405225e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>170715.5624327657</v>
+        <v>226546.1790057848</v>
       </c>
     </row>
     <row r="13">
@@ -16852,28 +16852,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>137.9881887438002</v>
+        <v>183.0979762791803</v>
       </c>
       <c r="AB13" t="n">
-        <v>188.8015274484293</v>
+        <v>250.5227288576772</v>
       </c>
       <c r="AC13" t="n">
-        <v>170.7825746534125</v>
+        <v>226.6131912264316</v>
       </c>
       <c r="AD13" t="n">
-        <v>137988.1887438002</v>
+        <v>183097.9762791803</v>
       </c>
       <c r="AE13" t="n">
-        <v>188801.5274484293</v>
+        <v>250522.7288576771</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.766505926150329e-06</v>
+        <v>3.887199263322836e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>170782.5746534125</v>
+        <v>226613.1912264315</v>
       </c>
     </row>
   </sheetData>
@@ -17149,28 +17149,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.2673409975704</v>
+        <v>150.4334051074343</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.5043964876806</v>
+        <v>205.8296215213415</v>
       </c>
       <c r="AC2" t="n">
-        <v>135.2359067176754</v>
+        <v>186.1855313270915</v>
       </c>
       <c r="AD2" t="n">
-        <v>109267.3409975704</v>
+        <v>150433.4051074343</v>
       </c>
       <c r="AE2" t="n">
-        <v>149504.3964876806</v>
+        <v>205829.6215213415</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.277422769304768e-06</v>
+        <v>4.866458903119421e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.8828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>135235.9067176754</v>
+        <v>186185.5313270915</v>
       </c>
     </row>
     <row r="3">
@@ -17255,28 +17255,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.7683788156442</v>
+        <v>149.9344429255081</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.8216944177115</v>
+        <v>205.1469194513725</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.6183607750856</v>
+        <v>185.5679853845017</v>
       </c>
       <c r="AD3" t="n">
-        <v>108768.3788156442</v>
+        <v>149934.4429255081</v>
       </c>
       <c r="AE3" t="n">
-        <v>148821.6944177116</v>
+        <v>205146.9194513725</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.306704575613288e-06</v>
+        <v>4.909937794016289e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>134618.3607750856</v>
+        <v>185567.9853845017</v>
       </c>
     </row>
   </sheetData>
@@ -17552,28 +17552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.5955403313434</v>
+        <v>265.9042505486472</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.568400282537</v>
+        <v>363.8219264682712</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.9822231328588</v>
+        <v>329.0992724334195</v>
       </c>
       <c r="AD2" t="n">
-        <v>203595.5403313434</v>
+        <v>265904.2505486471</v>
       </c>
       <c r="AE2" t="n">
-        <v>278568.400282537</v>
+        <v>363821.9264682712</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.046947845184475e-06</v>
+        <v>2.897969228005276e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.23177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>251982.2231328588</v>
+        <v>329099.2724334195</v>
       </c>
     </row>
     <row r="3">
@@ -17658,28 +17658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.4671291004471</v>
+        <v>236.7757498091965</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.7136229816358</v>
+        <v>323.9670266976447</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.9311298410117</v>
+        <v>293.0480683602955</v>
       </c>
       <c r="AD3" t="n">
-        <v>174467.1291004471</v>
+        <v>236775.7498091965</v>
       </c>
       <c r="AE3" t="n">
-        <v>238713.6229816358</v>
+        <v>323967.0266976447</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.264715870993393e-06</v>
+        <v>3.206274610148917e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.86458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>215931.1298410117</v>
+        <v>293048.0683602955</v>
       </c>
     </row>
     <row r="4">
@@ -17764,28 +17764,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.3847068027611</v>
+        <v>220.607986656939</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.7089432875557</v>
+        <v>301.845579881367</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.0265458931656</v>
+        <v>273.0378613805106</v>
       </c>
       <c r="AD4" t="n">
-        <v>158384.7068027612</v>
+        <v>220607.986656939</v>
       </c>
       <c r="AE4" t="n">
-        <v>216708.9432875557</v>
+        <v>301845.579881367</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.436012696801785e-06</v>
+        <v>3.448788326956862e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>196026.5458931656</v>
+        <v>273037.8613805106</v>
       </c>
     </row>
     <row r="5">
@@ -17870,28 +17870,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>153.9148424976237</v>
+        <v>207.2247887798781</v>
       </c>
       <c r="AB5" t="n">
-        <v>210.593077748774</v>
+        <v>283.5340981209613</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.4943699777321</v>
+        <v>256.4740017389861</v>
       </c>
       <c r="AD5" t="n">
-        <v>153914.8424976237</v>
+        <v>207224.7887798781</v>
       </c>
       <c r="AE5" t="n">
-        <v>210593.077748774</v>
+        <v>283534.0981209613</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.556162116157984e-06</v>
+        <v>3.61889003271165e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.39322916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>190494.3699777321</v>
+        <v>256474.0017389861</v>
       </c>
     </row>
     <row r="6">
@@ -17976,28 +17976,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>150.8600149943788</v>
+        <v>195.427219905302</v>
       </c>
       <c r="AB6" t="n">
-        <v>206.4133279893585</v>
+        <v>267.3921439147687</v>
       </c>
       <c r="AC6" t="n">
-        <v>186.7135296690383</v>
+        <v>241.8726129868524</v>
       </c>
       <c r="AD6" t="n">
-        <v>150860.0149943788</v>
+        <v>195427.219905302</v>
       </c>
       <c r="AE6" t="n">
-        <v>206413.3279893585</v>
+        <v>267392.1439147687</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.63950598712667e-06</v>
+        <v>3.736884232699841e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>186713.5296690383</v>
+        <v>241872.6129868524</v>
       </c>
     </row>
     <row r="7">
@@ -18082,28 +18082,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.0907793755366</v>
+        <v>191.4859770038116</v>
       </c>
       <c r="AB7" t="n">
-        <v>188.9418964767503</v>
+        <v>261.9995615015869</v>
       </c>
       <c r="AC7" t="n">
-        <v>170.9095470586798</v>
+        <v>236.994691070646</v>
       </c>
       <c r="AD7" t="n">
-        <v>138090.7793755366</v>
+        <v>191485.9770038116</v>
       </c>
       <c r="AE7" t="n">
-        <v>188941.8964767503</v>
+        <v>261999.5615015869</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.744642322611732e-06</v>
+        <v>3.885731144309105e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.61197916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>170909.5470586798</v>
+        <v>236994.691070646</v>
       </c>
     </row>
     <row r="8">
@@ -18188,28 +18188,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>138.3313397887848</v>
+        <v>191.7265374170597</v>
       </c>
       <c r="AB8" t="n">
-        <v>189.2710418469327</v>
+        <v>262.3287068717693</v>
       </c>
       <c r="AC8" t="n">
-        <v>171.2072792566905</v>
+        <v>237.2924232686567</v>
       </c>
       <c r="AD8" t="n">
-        <v>138331.3397887848</v>
+        <v>191726.5374170597</v>
       </c>
       <c r="AE8" t="n">
-        <v>189271.0418469327</v>
+        <v>262328.7068717693</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.744261961321405e-06</v>
+        <v>3.885192647289025e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.61197916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>171207.2792566905</v>
+        <v>237292.4232686567</v>
       </c>
     </row>
     <row r="9">
@@ -18294,28 +18294,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>134.601069758464</v>
+        <v>179.0829338148155</v>
       </c>
       <c r="AB9" t="n">
-        <v>184.1671218235512</v>
+        <v>245.0291706267638</v>
       </c>
       <c r="AC9" t="n">
-        <v>166.5904701969421</v>
+        <v>221.6439304828174</v>
       </c>
       <c r="AD9" t="n">
-        <v>134601.0697584639</v>
+        <v>179082.9338148155</v>
       </c>
       <c r="AE9" t="n">
-        <v>184167.1218235512</v>
+        <v>245029.1706267638</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.843469135516077e-06</v>
+        <v>4.025645340644096e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>166590.4701969421</v>
+        <v>221643.9304828174</v>
       </c>
     </row>
     <row r="10">
@@ -18400,28 +18400,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.4035397183739</v>
+        <v>178.8854037747255</v>
       </c>
       <c r="AB10" t="n">
-        <v>183.8968525082899</v>
+        <v>244.7589013115025</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.3459950058039</v>
+        <v>221.3994552916792</v>
       </c>
       <c r="AD10" t="n">
-        <v>134403.5397183739</v>
+        <v>178885.4037747255</v>
       </c>
       <c r="AE10" t="n">
-        <v>183896.8525082899</v>
+        <v>244758.9013115024</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.837853212935368e-06</v>
+        <v>4.017694590524087e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>166345.9950058039</v>
+        <v>221399.4552916792</v>
       </c>
     </row>
     <row r="11">
@@ -18506,28 +18506,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>133.8507835037126</v>
+        <v>178.3326475600642</v>
       </c>
       <c r="AB11" t="n">
-        <v>183.1405470695075</v>
+        <v>244.00259587272</v>
       </c>
       <c r="AC11" t="n">
-        <v>165.6618702966173</v>
+        <v>220.7153305824926</v>
       </c>
       <c r="AD11" t="n">
-        <v>133850.7835037126</v>
+        <v>178332.6475600642</v>
       </c>
       <c r="AE11" t="n">
-        <v>183140.5470695075</v>
+        <v>244002.59587272</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.865015483903418e-06</v>
+        <v>4.056149613016883e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>165661.8702966173</v>
+        <v>220715.3305824926</v>
       </c>
     </row>
   </sheetData>
@@ -18803,28 +18803,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.2600843519688</v>
+        <v>165.9673636141812</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.0181293783134</v>
+        <v>227.0838688601444</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.7918377324377</v>
+        <v>205.4113031304093</v>
       </c>
       <c r="AD2" t="n">
-        <v>124260.0843519688</v>
+        <v>165967.3636141812</v>
       </c>
       <c r="AE2" t="n">
-        <v>170018.1293783134</v>
+        <v>227083.8688601444</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.037689915456617e-06</v>
+        <v>4.466748290148843e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>153791.8377324377</v>
+        <v>205411.3031304093</v>
       </c>
     </row>
     <row r="3">
@@ -18909,28 +18909,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.6530298226997</v>
+        <v>153.4455604309327</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.7686011873838</v>
+        <v>209.950985321864</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.18858030218</v>
+        <v>189.9135579508639</v>
       </c>
       <c r="AD3" t="n">
-        <v>111653.0298226997</v>
+        <v>153445.5604309327</v>
       </c>
       <c r="AE3" t="n">
-        <v>152768.6011873838</v>
+        <v>209950.985321864</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.216047767079532e-06</v>
+        <v>4.729013251663693e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>138188.58030218</v>
+        <v>189913.5579508638</v>
       </c>
     </row>
     <row r="4">
@@ -19015,28 +19015,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>111.4477448464127</v>
+        <v>153.2402754546456</v>
       </c>
       <c r="AB4" t="n">
-        <v>152.487721226294</v>
+        <v>209.6701053607742</v>
       </c>
       <c r="AC4" t="n">
-        <v>137.934507130359</v>
+        <v>189.6594847790429</v>
       </c>
       <c r="AD4" t="n">
-        <v>111447.7448464127</v>
+        <v>153240.2754546456</v>
       </c>
       <c r="AE4" t="n">
-        <v>152487.721226294</v>
+        <v>209670.1053607742</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.227870038233983e-06</v>
+        <v>4.746397221369133e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>137934.507130359</v>
+        <v>189659.4847790429</v>
       </c>
     </row>
   </sheetData>
@@ -19312,28 +19312,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.5539350190434</v>
+        <v>199.0459062690178</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.8898035131522</v>
+        <v>272.3433902427772</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.6217240200332</v>
+        <v>246.3513193144353</v>
       </c>
       <c r="AD2" t="n">
-        <v>147553.9350190434</v>
+        <v>199045.9062690178</v>
       </c>
       <c r="AE2" t="n">
-        <v>201889.8035131522</v>
+        <v>272343.3902427772</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.603549100718181e-06</v>
+        <v>3.766743258672602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.77083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>182621.7240200332</v>
+        <v>246351.3193144353</v>
       </c>
     </row>
     <row r="3">
@@ -19418,28 +19418,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.3199100826038</v>
+        <v>183.7265404780066</v>
       </c>
       <c r="AB3" t="n">
-        <v>181.0459385173787</v>
+        <v>251.3827581248062</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.7671682449015</v>
+        <v>227.3911405073647</v>
       </c>
       <c r="AD3" t="n">
-        <v>132319.9100826038</v>
+        <v>183726.5404780066</v>
       </c>
       <c r="AE3" t="n">
-        <v>181045.9385173787</v>
+        <v>251382.7581248062</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.824689724426127e-06</v>
+        <v>4.086683433160107e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>163767.1682449015</v>
+        <v>227391.1405073647</v>
       </c>
     </row>
     <row r="4">
@@ -19524,28 +19524,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>127.7293584984559</v>
+        <v>170.5540831940806</v>
       </c>
       <c r="AB4" t="n">
-        <v>174.764943319108</v>
+        <v>233.3596209411463</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.0856224129195</v>
+        <v>211.0881062408757</v>
       </c>
       <c r="AD4" t="n">
-        <v>127729.3584984559</v>
+        <v>170554.0831940806</v>
       </c>
       <c r="AE4" t="n">
-        <v>174764.943319108</v>
+        <v>233359.6209411463</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.993715603851373e-06</v>
+        <v>4.331225428427501e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>158085.6224129195</v>
+        <v>211088.1062408757</v>
       </c>
     </row>
     <row r="5">
@@ -19630,28 +19630,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.5843155616932</v>
+        <v>167.9056051025243</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.5158038884439</v>
+        <v>229.7358563736737</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.2918394472116</v>
+        <v>207.8101886777361</v>
       </c>
       <c r="AD5" t="n">
-        <v>116584.3155616932</v>
+        <v>167905.6051025243</v>
       </c>
       <c r="AE5" t="n">
-        <v>159515.8038884439</v>
+        <v>229735.8563736737</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.080722522297163e-06</v>
+        <v>4.457104645924552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>144291.8394472116</v>
+        <v>207810.1886777361</v>
       </c>
     </row>
     <row r="6">
@@ -19736,28 +19736,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.5237732893627</v>
+        <v>167.8450628301939</v>
       </c>
       <c r="AB6" t="n">
-        <v>159.4329672805048</v>
+        <v>229.6530197657346</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.2169086488722</v>
+        <v>207.7352578793967</v>
       </c>
       <c r="AD6" t="n">
-        <v>116523.7732893627</v>
+        <v>167845.0628301938</v>
       </c>
       <c r="AE6" t="n">
-        <v>159432.9672805048</v>
+        <v>229653.0197657346</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.085098749130835e-06</v>
+        <v>4.46343605059044e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>144216.9086488722</v>
+        <v>207735.2578793967</v>
       </c>
     </row>
   </sheetData>
@@ -20033,28 +20033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.2360411910391</v>
+        <v>146.7150873570332</v>
       </c>
       <c r="AB2" t="n">
-        <v>145.3568383608774</v>
+        <v>200.7420551346435</v>
       </c>
       <c r="AC2" t="n">
-        <v>131.4841857173586</v>
+        <v>181.5835151358941</v>
       </c>
       <c r="AD2" t="n">
-        <v>106236.0411910391</v>
+        <v>146715.0873570332</v>
       </c>
       <c r="AE2" t="n">
-        <v>145356.8383608774</v>
+        <v>200742.0551346435</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.366545905995224e-06</v>
+        <v>5.055490189474914e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH2" t="n">
-        <v>131484.1857173586</v>
+        <v>181583.5151358941</v>
       </c>
     </row>
   </sheetData>
@@ -20330,28 +20330,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.4840487942335</v>
+        <v>149.6897574086146</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.1691497724338</v>
+        <v>204.8121299323957</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.7417782854282</v>
+        <v>185.265147707336</v>
       </c>
       <c r="AD2" t="n">
-        <v>110484.0487942335</v>
+        <v>149689.7574086146</v>
       </c>
       <c r="AE2" t="n">
-        <v>151169.1497724338</v>
+        <v>204812.1299323957</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.425027853991757e-06</v>
+        <v>5.253125335889215e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>136741.7782854282</v>
+        <v>185265.1477073359</v>
       </c>
     </row>
   </sheetData>
@@ -34200,28 +34200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.8964917295274</v>
+        <v>251.9840455771525</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.8247576261711</v>
+        <v>344.7756879100082</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.0274474247427</v>
+        <v>311.870780151697</v>
       </c>
       <c r="AD2" t="n">
-        <v>189896.4917295274</v>
+        <v>251984.0455771525</v>
       </c>
       <c r="AE2" t="n">
-        <v>259824.7576261711</v>
+        <v>344775.6879100082</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.116052745548635e-06</v>
+        <v>3.003946846123046e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.85416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>235027.4474247427</v>
+        <v>311870.7801516971</v>
       </c>
     </row>
     <row r="3">
@@ -34306,28 +34306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.4611547203951</v>
+        <v>223.7643988729312</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.2324721037349</v>
+        <v>306.1643223263644</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.9730923100523</v>
+        <v>276.944429107952</v>
       </c>
       <c r="AD3" t="n">
-        <v>170461.1547203951</v>
+        <v>223764.3988729312</v>
       </c>
       <c r="AE3" t="n">
-        <v>233232.4721037349</v>
+        <v>306164.3223263644</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.341028181922855e-06</v>
+        <v>3.323321802145834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>210973.0923100523</v>
+        <v>276944.429107952</v>
       </c>
     </row>
     <row r="4">
@@ -34412,28 +34412,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.3010621591162</v>
+        <v>208.5189654570806</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.4897646453224</v>
+        <v>285.3048477457542</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.2100397388913</v>
+        <v>258.0757535048521</v>
       </c>
       <c r="AD4" t="n">
-        <v>155301.0621591162</v>
+        <v>208518.9654570806</v>
       </c>
       <c r="AE4" t="n">
-        <v>212489.7646453224</v>
+        <v>285304.8477457542</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.499614470506164e-06</v>
+        <v>3.548450775150086e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.73177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>192210.0397388913</v>
+        <v>258075.7535048521</v>
       </c>
     </row>
     <row r="5">
@@ -34518,28 +34518,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.1009912999474</v>
+        <v>195.4493335568021</v>
       </c>
       <c r="AB5" t="n">
-        <v>206.7430424017617</v>
+        <v>267.4224007883366</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.0117766006789</v>
+        <v>241.8999821868728</v>
       </c>
       <c r="AD5" t="n">
-        <v>151100.9912999474</v>
+        <v>195449.3335568022</v>
       </c>
       <c r="AE5" t="n">
-        <v>206743.0424017617</v>
+        <v>267422.4007883366</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.61802496544667e-06</v>
+        <v>3.716546222474192e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.19791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>187011.7766006789</v>
+        <v>241899.9821868728</v>
       </c>
     </row>
     <row r="6">
@@ -34624,28 +34624,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.0241818088641</v>
+        <v>192.1567442522569</v>
       </c>
       <c r="AB6" t="n">
-        <v>190.2190188648375</v>
+        <v>262.9173348430717</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.0647826785008</v>
+        <v>237.8248734125228</v>
       </c>
       <c r="AD6" t="n">
-        <v>139024.1818088641</v>
+        <v>192156.7442522569</v>
       </c>
       <c r="AE6" t="n">
-        <v>190219.0188648375</v>
+        <v>262917.3348430717</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.70646125560098e-06</v>
+        <v>3.842090311793661e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>172064.7826785008</v>
+        <v>237824.8734125228</v>
       </c>
     </row>
     <row r="7">
@@ -34730,28 +34730,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.1460442582468</v>
+        <v>179.4090456605299</v>
       </c>
       <c r="AB7" t="n">
-        <v>184.9127799767319</v>
+        <v>245.4753712411091</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.2649637825212</v>
+        <v>222.0475463367763</v>
       </c>
       <c r="AD7" t="n">
-        <v>135146.0442582468</v>
+        <v>179409.0456605299</v>
       </c>
       <c r="AE7" t="n">
-        <v>184912.7799767319</v>
+        <v>245475.3712411092</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.818048171240045e-06</v>
+        <v>4.00049901120236e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.40364583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>167264.9637825212</v>
+        <v>222047.5463367763</v>
       </c>
     </row>
     <row r="8">
@@ -34836,28 +34836,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.6842501573107</v>
+        <v>178.9472515595939</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.2809329149136</v>
+        <v>244.8435241792909</v>
       </c>
       <c r="AC8" t="n">
-        <v>166.6934193174798</v>
+        <v>221.4760018717349</v>
       </c>
       <c r="AD8" t="n">
-        <v>134684.2501573107</v>
+        <v>178947.2515595939</v>
       </c>
       <c r="AE8" t="n">
-        <v>184280.9329149136</v>
+        <v>244843.5241792909</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.830839567422284e-06</v>
+        <v>4.018657667360613e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.36458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>166693.4193174798</v>
+        <v>221476.0018717349</v>
       </c>
     </row>
     <row r="9">
@@ -34942,28 +34942,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>132.749058639813</v>
+        <v>177.0120600420961</v>
       </c>
       <c r="AB9" t="n">
-        <v>181.6331185060502</v>
+        <v>242.1957097704275</v>
       </c>
       <c r="AC9" t="n">
-        <v>164.2983085995666</v>
+        <v>219.0808911538217</v>
       </c>
       <c r="AD9" t="n">
-        <v>132749.058639813</v>
+        <v>177012.0600420961</v>
       </c>
       <c r="AE9" t="n">
-        <v>181633.1185060502</v>
+        <v>242195.7097704275</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.886148843872242e-06</v>
+        <v>4.097174673566015e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH9" t="n">
-        <v>164298.3085995666</v>
+        <v>219080.8911538217</v>
       </c>
     </row>
     <row r="10">
@@ -35048,28 +35048,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>132.8197532795854</v>
+        <v>177.0827546818685</v>
       </c>
       <c r="AB10" t="n">
-        <v>181.7298460310141</v>
+        <v>242.2924372953915</v>
       </c>
       <c r="AC10" t="n">
-        <v>164.3858045853059</v>
+        <v>219.168387139561</v>
       </c>
       <c r="AD10" t="n">
-        <v>132819.7532795854</v>
+        <v>177082.7546818685</v>
       </c>
       <c r="AE10" t="n">
-        <v>181729.8460310141</v>
+        <v>242292.4372953915</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.884414798967255e-06</v>
+        <v>4.094713024755829e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>164385.8045853059</v>
+        <v>219168.3871395611</v>
       </c>
     </row>
   </sheetData>
@@ -35345,28 +35345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.7245933346009</v>
+        <v>145.9806424390368</v>
       </c>
       <c r="AB2" t="n">
-        <v>147.3935410739833</v>
+        <v>199.7371551964183</v>
       </c>
       <c r="AC2" t="n">
-        <v>133.3265083820565</v>
+        <v>180.6745214373867</v>
       </c>
       <c r="AD2" t="n">
-        <v>107724.5933346009</v>
+        <v>145980.6424390368</v>
       </c>
       <c r="AE2" t="n">
-        <v>147393.5410739833</v>
+        <v>199737.1551964183</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.418647843742061e-06</v>
+        <v>5.341569821768564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>133326.5083820565</v>
+        <v>180674.5214373867</v>
       </c>
     </row>
   </sheetData>
@@ -35642,28 +35642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.0715713260824</v>
+        <v>162.7368569350494</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.9189769552594</v>
+        <v>222.6637471018624</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.3702184529147</v>
+        <v>201.4130315890564</v>
       </c>
       <c r="AD2" t="n">
-        <v>119071.5713260824</v>
+        <v>162736.8569350494</v>
       </c>
       <c r="AE2" t="n">
-        <v>162918.9769552595</v>
+        <v>222663.7471018624</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.111891676799362e-06</v>
+        <v>5.071375594458845e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>147370.2184529147</v>
+        <v>201413.0315890564</v>
       </c>
     </row>
   </sheetData>
@@ -35939,28 +35939,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.6108106791524</v>
+        <v>162.0115375292373</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.0250321445765</v>
+        <v>221.6713330919969</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.2752746908311</v>
+        <v>200.5153321794304</v>
       </c>
       <c r="AD2" t="n">
-        <v>120610.8106791524</v>
+        <v>162011.5375292373</v>
       </c>
       <c r="AE2" t="n">
-        <v>165025.0321445765</v>
+        <v>221671.3330919969</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.166220618156731e-06</v>
+        <v>4.677713564926999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>149275.2746908311</v>
+        <v>200515.3321794304</v>
       </c>
     </row>
     <row r="3">
@@ -36045,28 +36045,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.2299980994629</v>
+        <v>151.7159762955683</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.8215464039232</v>
+        <v>207.5844920039929</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.4273496945438</v>
+        <v>187.7729194338554</v>
       </c>
       <c r="AD3" t="n">
-        <v>110229.9980994629</v>
+        <v>151715.9762955683</v>
       </c>
       <c r="AE3" t="n">
-        <v>150821.5464039232</v>
+        <v>207584.4920039929</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.256991452157289e-06</v>
+        <v>4.811816652712252e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH3" t="n">
-        <v>136427.3496945438</v>
+        <v>187772.9194338554</v>
       </c>
     </row>
   </sheetData>
@@ -36342,28 +36342,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.4146328440619</v>
+        <v>194.4179376877089</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.2262276642217</v>
+        <v>266.0111994582696</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.4986719012441</v>
+        <v>240.6234639311134</v>
       </c>
       <c r="AD2" t="n">
-        <v>143414.6328440619</v>
+        <v>194417.9376877089</v>
       </c>
       <c r="AE2" t="n">
-        <v>196226.2276642217</v>
+        <v>266011.1994582696</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.714643682303063e-06</v>
+        <v>3.942121443913018e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>177498.6719012441</v>
+        <v>240623.4639311134</v>
       </c>
     </row>
     <row r="3">
@@ -36448,28 +36448,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.0416649062379</v>
+        <v>180.1302210959055</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.5604988411071</v>
+        <v>246.4621152878043</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.7098126359776</v>
+        <v>222.9401169165591</v>
       </c>
       <c r="AD3" t="n">
-        <v>129041.6649062379</v>
+        <v>180130.2210959055</v>
       </c>
       <c r="AE3" t="n">
-        <v>176560.4988411071</v>
+        <v>246462.1152878043</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.922653992862924e-06</v>
+        <v>4.244187571839376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.57291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>159709.8126359776</v>
+        <v>222940.1169165591</v>
       </c>
     </row>
     <row r="4">
@@ -36554,28 +36554,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>125.0065536861191</v>
+        <v>167.5662165436311</v>
       </c>
       <c r="AB4" t="n">
-        <v>171.0394816532001</v>
+        <v>229.2714899746298</v>
       </c>
       <c r="AC4" t="n">
-        <v>154.7157135796864</v>
+        <v>207.3901407560744</v>
       </c>
       <c r="AD4" t="n">
-        <v>125006.5536861191</v>
+        <v>167566.2165436311</v>
       </c>
       <c r="AE4" t="n">
-        <v>171039.4816532001</v>
+        <v>229271.4899746298</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.075364117072986e-06</v>
+        <v>4.465948482590057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>154715.7135796864</v>
+        <v>207390.1407560744</v>
       </c>
     </row>
     <row r="5">
@@ -36660,28 +36660,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.0726836696432</v>
+        <v>157.7175978731758</v>
       </c>
       <c r="AB5" t="n">
-        <v>157.4475224452496</v>
+        <v>215.7961754193286</v>
       </c>
       <c r="AC5" t="n">
-        <v>142.4209518821039</v>
+        <v>195.2008913092041</v>
       </c>
       <c r="AD5" t="n">
-        <v>115072.6836696432</v>
+        <v>157717.5978731758</v>
       </c>
       <c r="AE5" t="n">
-        <v>157447.5224452496</v>
+        <v>215796.1754193286</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.129217151399045e-06</v>
+        <v>4.544152190435955e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>142420.9518821038</v>
+        <v>195200.8913092041</v>
       </c>
     </row>
     <row r="6">
@@ -36766,28 +36766,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.1282443363687</v>
+        <v>157.7731585399013</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.5235430006271</v>
+        <v>215.8721959747061</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.4897171423716</v>
+        <v>195.2696565694719</v>
       </c>
       <c r="AD6" t="n">
-        <v>115128.2443363687</v>
+        <v>157773.1585399013</v>
       </c>
       <c r="AE6" t="n">
-        <v>157523.5430006271</v>
+        <v>215872.1959747061</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.128529161092677e-06</v>
+        <v>4.543153112229994e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>142489.7171423716</v>
+        <v>195269.6565694719</v>
       </c>
     </row>
   </sheetData>
@@ -37063,28 +37063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.766832821335</v>
+        <v>228.8033513805942</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.5459820163496</v>
+        <v>313.0588394502408</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.6384356625845</v>
+        <v>283.1809431940434</v>
       </c>
       <c r="AD2" t="n">
-        <v>167766.832821335</v>
+        <v>228803.3513805942</v>
       </c>
       <c r="AE2" t="n">
-        <v>229545.9820163496</v>
+        <v>313058.8394502408</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.351029338716851e-06</v>
+        <v>3.367159151786174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>207638.4356625845</v>
+        <v>283180.9431940434</v>
       </c>
     </row>
     <row r="3">
@@ -37169,28 +37169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.0020384913314</v>
+        <v>203.3922037031864</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.6076508035234</v>
+        <v>278.290186137314</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.8893065865531</v>
+        <v>251.7305613551797</v>
       </c>
       <c r="AD3" t="n">
-        <v>151002.0384913314</v>
+        <v>203392.2037031864</v>
       </c>
       <c r="AE3" t="n">
-        <v>206607.6508035234</v>
+        <v>278290.186137314</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.565963249626419e-06</v>
+        <v>3.674988864172213e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186889.3065865531</v>
+        <v>251730.5613551797</v>
       </c>
     </row>
     <row r="4">
@@ -37275,28 +37275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.0563935168225</v>
+        <v>189.3612178741059</v>
       </c>
       <c r="AB4" t="n">
-        <v>187.5266041109751</v>
+        <v>259.092372322568</v>
       </c>
       <c r="AC4" t="n">
-        <v>169.6293282099183</v>
+        <v>234.364959946606</v>
       </c>
       <c r="AD4" t="n">
-        <v>137056.3935168225</v>
+        <v>189361.2178741059</v>
       </c>
       <c r="AE4" t="n">
-        <v>187526.6041109751</v>
+        <v>259092.372322568</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.723162987419392e-06</v>
+        <v>3.900131327114376e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.98958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>169629.3282099183</v>
+        <v>234364.959946606</v>
       </c>
     </row>
     <row r="5">
@@ -37381,28 +37381,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>133.172009190967</v>
+        <v>176.7452288548256</v>
       </c>
       <c r="AB5" t="n">
-        <v>182.2118181094002</v>
+        <v>241.830619568243</v>
       </c>
       <c r="AC5" t="n">
-        <v>164.8217779249831</v>
+        <v>218.7506446481263</v>
       </c>
       <c r="AD5" t="n">
-        <v>133172.009190967</v>
+        <v>176745.2288548256</v>
       </c>
       <c r="AE5" t="n">
-        <v>182211.8181094002</v>
+        <v>241830.619568243</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.851875014940976e-06</v>
+        <v>4.084473510462368e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.49479166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>164821.7779249831</v>
+        <v>218750.6446481263</v>
       </c>
     </row>
     <row r="6">
@@ -37487,28 +37487,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.4634432740964</v>
+        <v>173.036662937955</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.1375946115592</v>
+        <v>236.756396070402</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.231831196057</v>
+        <v>214.1606979192002</v>
       </c>
       <c r="AD6" t="n">
-        <v>129463.4432740964</v>
+        <v>173036.662937955</v>
       </c>
       <c r="AE6" t="n">
-        <v>177137.5946115592</v>
+        <v>236756.396070402</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.965388998484037e-06</v>
+        <v>4.247048958691923e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.09114583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>160231.831196057</v>
+        <v>214160.6979192002</v>
       </c>
     </row>
     <row r="7">
@@ -37593,28 +37593,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>129.0063882635025</v>
+        <v>172.5796079273611</v>
       </c>
       <c r="AB7" t="n">
-        <v>176.5122317822209</v>
+        <v>236.1310332410637</v>
       </c>
       <c r="AC7" t="n">
-        <v>159.6661521174483</v>
+        <v>213.5950188405915</v>
       </c>
       <c r="AD7" t="n">
-        <v>129006.3882635025</v>
+        <v>172579.6079273611</v>
       </c>
       <c r="AE7" t="n">
-        <v>176512.2317822209</v>
+        <v>236131.0332410637</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.976793279593488e-06</v>
+        <v>4.263382242532688e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>159666.1521174483</v>
+        <v>213595.0188405915</v>
       </c>
     </row>
     <row r="8">
@@ -37699,28 +37699,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>129.0655804515171</v>
+        <v>172.6388001153757</v>
       </c>
       <c r="AB8" t="n">
-        <v>176.5932211452374</v>
+        <v>236.2120226040803</v>
       </c>
       <c r="AC8" t="n">
-        <v>159.7394119693278</v>
+        <v>213.668278692471</v>
       </c>
       <c r="AD8" t="n">
-        <v>129065.5804515171</v>
+        <v>172638.8001153757</v>
       </c>
       <c r="AE8" t="n">
-        <v>176593.2211452374</v>
+        <v>236212.0226040803</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.97541372945928e-06</v>
+        <v>4.261406442068079e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>159739.4119693278</v>
+        <v>213668.278692471</v>
       </c>
     </row>
   </sheetData>
